--- a/Static/Outputs/Plants_Linked_Filled_Review.xlsx
+++ b/Static/Outputs/Plants_Linked_Filled_Review.xlsx
@@ -475,28 +475,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="150" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="180" customWidth="1" min="3" max="3"/>
+    <col width="160" customWidth="1" min="4" max="4"/>
+    <col width="90" customWidth="1" min="5" max="5"/>
     <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="30" customWidth="1" min="7" max="7"/>
-    <col width="35" customWidth="1" min="8" max="8"/>
-    <col width="24" customWidth="1" min="9" max="9"/>
-    <col width="13" customWidth="1" min="10" max="10"/>
-    <col width="50" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="50" customWidth="1" min="13" max="13"/>
-    <col width="50" customWidth="1" min="14" max="14"/>
-    <col width="50" customWidth="1" min="15" max="15"/>
-    <col width="29" customWidth="1" min="16" max="16"/>
-    <col width="22" customWidth="1" min="17" max="17"/>
-    <col width="50" customWidth="1" min="18" max="18"/>
-    <col width="50" customWidth="1" min="19" max="19"/>
-    <col width="50" customWidth="1" min="20" max="20"/>
-    <col width="50" customWidth="1" min="21" max="21"/>
-    <col width="50" customWidth="1" min="22" max="22"/>
+    <col width="90" customWidth="1" min="7" max="7"/>
+    <col width="150" customWidth="1" min="8" max="8"/>
+    <col width="150" customWidth="1" min="9" max="9"/>
+    <col width="100" customWidth="1" min="10" max="10"/>
+    <col width="125" customWidth="1" min="11" max="11"/>
+    <col width="120" customWidth="1" min="12" max="12"/>
+    <col width="300" customWidth="1" min="13" max="13"/>
+    <col width="180" customWidth="1" min="14" max="14"/>
+    <col width="175" customWidth="1" min="15" max="15"/>
+    <col width="175" customWidth="1" min="16" max="16"/>
+    <col width="150" customWidth="1" min="17" max="17"/>
+    <col width="100" customWidth="1" min="18" max="18"/>
+    <col width="100" customWidth="1" min="19" max="19"/>
+    <col width="100" customWidth="1" min="20" max="20"/>
+    <col width="100" customWidth="1" min="21" max="21"/>
+    <col width="100" customWidth="1" min="22" max="22"/>
+    <col width="100" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13042,6 +13043,30 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="150" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="180" customWidth="1" min="3" max="3"/>
+    <col width="160" customWidth="1" min="4" max="4"/>
+    <col width="90" customWidth="1" min="5" max="5"/>
+    <col width="90" customWidth="1" min="7" max="7"/>
+    <col width="150" customWidth="1" min="8" max="8"/>
+    <col width="150" customWidth="1" min="9" max="9"/>
+    <col width="100" customWidth="1" min="10" max="10"/>
+    <col width="125" customWidth="1" min="11" max="11"/>
+    <col width="120" customWidth="1" min="12" max="12"/>
+    <col width="300" customWidth="1" min="13" max="13"/>
+    <col width="180" customWidth="1" min="14" max="14"/>
+    <col width="175" customWidth="1" min="15" max="15"/>
+    <col width="175" customWidth="1" min="16" max="16"/>
+    <col width="150" customWidth="1" min="17" max="17"/>
+    <col width="100" customWidth="1" min="18" max="18"/>
+    <col width="100" customWidth="1" min="19" max="19"/>
+    <col width="100" customWidth="1" min="20" max="20"/>
+    <col width="100" customWidth="1" min="21" max="21"/>
+    <col width="100" customWidth="1" min="22" max="22"/>
+    <col width="100" customWidth="1" min="23" max="23"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="inlineStr">
@@ -25214,7 +25239,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Static/Python/Excelify2.py               → 2025-06-05 09:58    Creates formatted Excel output with filters &amp; highlights</t>
+          <t>Static/Python/Excelify2.py               → 2025-06-05 11:22    Creates formatted Excel output with filters &amp; highlights</t>
         </is>
       </c>
     </row>
@@ -38999,7 +39024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A220"/>
+  <dimension ref="A1:A262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39454,23 +39479,19 @@
       <c r="A69" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>for i, column_cells in enumerate(ws.columns, start=1):</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">    max_length = max(len(str(cell.value or "")) for cell in column_cells)</t>
+          <t>def autofit_columns(ws: Worksheet) -&gt; None:</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws.column_dimensions[get_column_letter(i)].width = min(max_length + 2, 50)</t>
+          <t xml:space="preserve">    """Resize each column based solely on its header label."""</t>
         </is>
       </c>
     </row>
@@ -39480,49 +39501,41 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t># ─── Step 3: Apply Filters ────────────────────────────────────────────────</t>
+          <t xml:space="preserve">    for cell in ws[1]:</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>filter_cols = ["Plant Type", "Bloom Color", "Sun", "Water", "Attracts"]</t>
+          <t xml:space="preserve">        letter = get_column_letter(cell.col_idx)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>header = [cell.value for cell in ws[1]]</t>
+          <t xml:space="preserve">        ws.column_dimensions[letter].width = len(str(cell.value or "")) + 2</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>filter_indices = [i + 1 for i, val in enumerate(header) if val in filter_cols]</t>
-        </is>
-      </c>
+      <c r="A77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>if filter_indices:</t>
-        </is>
-      </c>
+      <c r="A78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">    col_range = f"{get_column_letter(min(filter_indices))}1:{get_column_letter(max(filter_indices))}1"</t>
+          <t>def set_fixed_column_widths(ws: Worksheet) -&gt; None:</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws.auto_filter.ref = col_range</t>
+          <t xml:space="preserve">    """Apply hard-coded column widths for consistent layout."""</t>
         </is>
       </c>
     </row>
@@ -39532,152 +39545,168 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t># ─── Step 4: Format Cells + Short Hyperlinks ──────────────────────────────</t>
+          <t xml:space="preserve">    widths = {</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>link_map = {</t>
+          <t xml:space="preserve">        "A": 150.0,</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Link: Missouri Botanical Garden": "[MBG]",</t>
+          <t xml:space="preserve">        "B": 60.0,</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Link: Wildflower.org": "[WF]",</t>
+          <t xml:space="preserve">        "C": 180.0,</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Link: Pleasantrunnursery.com": "[PR]",</t>
+          <t xml:space="preserve">        "D": 160.0,</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Link: Newmoonnursery.com": "[NM]",</t>
+          <t xml:space="preserve">        "E": 90.0,</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Link: Pinelandsnursery.com": "[PN]",</t>
+          <t xml:space="preserve">        "G": 90.0,</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">        "H": 150.0,</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "I": 150.0,</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "J": 100.0,</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>def style_sheet(ws: Worksheet, df: pd.DataFrame, header: list[str]) -&gt; None:</t>
+          <t xml:space="preserve">        "K": 125.0,</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">    red_fill = PatternFill(start_color="FFCCCC", end_color="FFCCCC", fill_type="solid")</t>
+          <t xml:space="preserve">        "L": 120.0,</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "M": 300.0,</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for row_idx, row in enumerate(df.itertuples(index=False, name=None), start=2):</t>
+          <t xml:space="preserve">        "N": 180.0,</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for col_idx, (col_name, value) in enumerate(zip(header, row), start=1):</t>
+          <t xml:space="preserve">        "O": 175.0,</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">            cell: Cell = ws.cell(row=row_idx, column=col_idx)</t>
+          <t xml:space="preserve">        "P": 175.0,</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">            value = str(value).strip()</t>
+          <t xml:space="preserve">        "Q": 150.0,</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "R": 100.0,</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if col_name in link_map and value.startswith("http"):</t>
+          <t xml:space="preserve">        "S": 100.0,</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">                cell.value = link_map[col_name]</t>
+          <t xml:space="preserve">        "T": 100.0,</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">                cell.hyperlink = value</t>
+          <t xml:space="preserve">        "U": 100.0,</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">                cell.style = "Hyperlink"</t>
+          <t xml:space="preserve">        "V": 100.0,</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">            else:</t>
+          <t xml:space="preserve">        "W": 100.0,</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">                cell.value = value</t>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
@@ -39687,86 +39716,86 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if col_name == "Botanical Name":</t>
+          <t xml:space="preserve">    for col, width in widths.items():</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">                cell.font = Font(italic=True)</t>
+          <t xml:space="preserve">        ws.column_dimensions[col].width = width</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            if not value:</t>
-        </is>
-      </c>
+      <c r="A109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                cell.fill = red_fill</t>
-        </is>
-      </c>
+      <c r="A110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>autofit_columns(ws)</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>set_fixed_column_widths(ws)</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>style_sheet(ws, df, header)</t>
-        </is>
-      </c>
+      <c r="A113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr"/>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t># ─── Step 3: Apply Filters ────────────────────────────────────────────────</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t># ─── Step 4B: Add raw export sheet with full link data ─────────────────────</t>
+          <t>filter_cols = ["Plant Type", "Bloom Color", "Sun", "Water", "Attracts"]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>raw_sheet = wb.create_sheet("Plant Data CSV — No Short Links")</t>
+          <t>header = [cell.value for cell in ws[1]]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>for col_idx, col_name in enumerate(df.columns, start=1):</t>
+          <t>filter_indices = [i + 1 for i, val in enumerate(header) if val in filter_cols]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cell = raw_sheet.cell(row=1, column=col_idx)</t>
+          <t>if filter_indices:</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cell.value = col_name</t>
+          <t xml:space="preserve">    col_range = f"{get_column_letter(min(filter_indices))}1:{get_column_letter(max(filter_indices))}1"</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cell.font = BOLD_FONT</t>
+          <t xml:space="preserve">    ws.auto_filter.ref = col_range</t>
         </is>
       </c>
     </row>
@@ -39776,655 +39805,909 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>for row_idx, row in enumerate(df.itertuples(index=False, name=None), start=2):</t>
+          <t># ─── Step 4: Format Cells + Short Hyperlinks ──────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for col_idx, value in enumerate(row, start=1):</t>
+          <t>link_map = {</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">        raw_sheet.cell(row=row_idx, column=col_idx).value = value</t>
+          <t xml:space="preserve">    "Link: Missouri Botanical Garden": "[MBG]",</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Link: Wildflower.org": "[WF]",</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t># ─── Step 5: README Sheet ─────────────────────────────────────────────────</t>
+          <t xml:space="preserve">    "Link: Pleasantrunnursery.com": "[PR]",</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>readme = wb.create_sheet("README")</t>
+          <t xml:space="preserve">    "Link: Newmoonnursery.com": "[NM]",</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>readme.sheet_properties.tabColor = "A9A9A9"</t>
+          <t xml:space="preserve">    "Link: Pinelandsnursery.com": "[PN]",</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>readme.column_dimensions["A"].width = 100</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>readme["A1"] = "🌿 Plant Database Export: Excel Legend and Process Notes"</t>
-        </is>
-      </c>
+      <c r="A130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>readme["A3"] = "Legend:"</t>
-        </is>
-      </c>
+      <c r="A131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>readme["A4"] = "🔴 Red: Missing value (empty cell)"</t>
+          <t>def style_sheet(ws: Worksheet, df: pd.DataFrame, header: list[str]) -&gt; None:</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>readme["A6"] = "Filters applied only to these columns:"</t>
+          <t xml:space="preserve">    red_fill = PatternFill(start_color="FFCCCC", end_color="FFCCCC", fill_type="solid")</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>readme["A7"] = ", ".join(filter_cols)</t>
-        </is>
-      </c>
+      <c r="A134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>readme["A9"] = "🛠 How to filter by partial match in Excel:"</t>
+          <t xml:space="preserve">    for row_idx, row in enumerate(df.itertuples(index=False, name=None), start=2):</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>readme["A10"] = (</t>
+          <t xml:space="preserve">        for col_idx, (col_name, value) in enumerate(zip(header, row), start=1):</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "1. Click the filter dropdown on the column header (e.g., Sun or Characteristics)."</t>
+          <t xml:space="preserve">            cell: Cell = ws.cell(row=row_idx, column=col_idx)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>)</t>
+          <t xml:space="preserve">            value = str(value).strip()</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>readme["A11"] = "2. Choose 'Text Filters' &gt; 'Contains...'"</t>
-        </is>
-      </c>
+      <c r="A139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>readme["A12"] = "3. Type a partial term (e.g., 'shade', 'yellow') and click OK."</t>
+          <t xml:space="preserve">            if col_name in link_map and value.startswith("http"):</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>readme["A13"] = "💡 Use this to find plants matching conditions across categories."</t>
+          <t xml:space="preserve">                cell.value = link_map[col_name]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>readme["A15"] = "📄 https://github.com/InfusedChooch/Plants"</t>
+          <t xml:space="preserve">                cell.hyperlink = value</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>readme["A16"] = (</t>
+          <t xml:space="preserve">                cell.style = "Hyperlink"</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "This Excel was generated from the filled CSV using the script Excelify2.py"</t>
+          <t xml:space="preserve">            else:</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>)</t>
+          <t xml:space="preserve">                cell.value = value</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>readme["A17"] = (</t>
-        </is>
-      </c>
+      <c r="A146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Download https://portableapps.com/apps/internet/google_chrome_portable and place it in the /Static folder"</t>
+          <t xml:space="preserve">            if col_name == "Botanical Name":</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>)</t>
+          <t xml:space="preserve">                cell.font = Font(italic=True)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>readme["A18"] = "Static/GoogleChromePortable"</t>
+          <t xml:space="preserve">            if not value:</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr"/>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                cell.fill = red_fill</t>
+        </is>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t># ─── Step 6: Script Version Info ──────────────────────────────────────────</t>
-        </is>
-      </c>
+      <c r="A151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>script_descriptions = {</t>
-        </is>
-      </c>
+      <c r="A152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Static/Python/PDFScraper.py": "Extracts plant data from the PDF guide",</t>
+          <t>style_sheet(ws, df, header)</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    "Static/Python/GetLinks.py": "Finds official MBG &amp; WF URLs for each plant",</t>
-        </is>
-      </c>
+      <c r="A154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Static/Python/FillMissingData.py": "Populates missing fields using those links",</t>
+          <t># ─── Step 4B: Add raw export sheet with full link data ─────────────────────</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Static/Python/GeneratePDF.py": "Creates printable PDF guide with images and sections",</t>
+          <t>raw_sheet = wb.create_sheet("Plant Data CSV — No Short Links")</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Static/Python/Excelify2.py": "Creates formatted Excel output with filters &amp; highlights",</t>
+          <t>for col_idx, col_name in enumerate(df.columns, start=1):</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">    cell = raw_sheet.cell(row=1, column=col_idx)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>row_start = readme.max_row + 2</t>
+          <t xml:space="preserve">    cell.value = col_name</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>readme[f"A{row_start}"] = "📁 Script Version Info (Last Modified):"</t>
+          <t xml:space="preserve">    cell.font = BOLD_FONT</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>for i, (script_path, description) in enumerate(</t>
-        </is>
-      </c>
+      <c r="A161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">    script_descriptions.items(), start=row_start + 1</t>
+          <t>for row_idx, row in enumerate(df.itertuples(index=False, name=None), start=2):</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>):</t>
+          <t xml:space="preserve">    for col_idx, value in enumerate(row, start=1):</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_path = REPO / script_path</t>
+          <t xml:space="preserve">        raw_sheet.cell(row=row_idx, column=col_idx).value = value</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    if full_path.exists():</t>
-        </is>
-      </c>
+      <c r="A165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">        modified = datetime.fromtimestamp(full_path.stat().st_mtime).strftime(</t>
+          <t>set_fixed_column_widths(raw_sheet)</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            "%Y-%m-%d %H:%M"</t>
-        </is>
-      </c>
+      <c r="A167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">        )</t>
+          <t># ─── Step 5: README Sheet ─────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">        readme[f"A{i}"] = f"{script_path:&lt;40} → {modified}    {description}"</t>
+          <t>readme = wb.create_sheet("README")</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">    else:</t>
+          <t>readme.sheet_properties.tabColor = "A9A9A9"</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">        readme[f"A{i}"] = f"{script_path:&lt;40} → MISSING        {description}"</t>
+          <t>readme.column_dimensions["A"].width = 100</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr"/>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>readme["A1"] = "🌿 Plant Database Export: Excel Legend and Process Notes"</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t># ─── Step 7: Add pip requirements ─────────────────────────────────────────</t>
+          <t>readme["A3"] = "Legend:"</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>req_path = REPO / "requirements.txt"</t>
+          <t>readme["A4"] = "🔴 Red: Missing value (empty cell)"</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>readme_row = readme.max_row + 2</t>
+          <t>readme["A6"] = "Filters applied only to these columns:"</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>readme[f"A{readme_row}"] = "📦 Required Python Packages:"</t>
+          <t>readme["A7"] = ", ".join(filter_cols)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>try:</t>
+          <t>readme["A9"] = "🛠 How to filter by partial match in Excel:"</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">    lines = req_path.read_text(encoding="utf-8").splitlines()</t>
+          <t>readme["A10"] = (</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for i, line in enumerate(lines, start=readme_row + 1):</t>
+          <t xml:space="preserve">    "1. Click the filter dropdown on the column header (e.g., Sun or Characteristics)."</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if line.strip() and not line.strip().startswith("#"):</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">            readme[f"A{i}"] = line.strip()</t>
+          <t>readme["A11"] = "2. Choose 'Text Filters' &gt; 'Contains...'"</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>except Exception as e:</t>
+          <t>readme["A12"] = "3. Type a partial term (e.g., 'shade', 'yellow') and click OK."</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">    readme[f"A{readme_row + 1}"] = f"⚠️ Error reading requirements.txt: {e}"</t>
+          <t>readme["A13"] = "💡 Use this to find plants matching conditions across categories."</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr"/>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>readme["A15"] = "📄 https://github.com/InfusedChooch/Plants"</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t># ─── Step 8: Embed Black-formatted code ──────────────────────────────────</t>
+          <t>readme["A16"] = (</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>for script_path, description in script_descriptions.items():</t>
+          <t xml:space="preserve">    "This Excel was generated from the filled CSV using the script Excelify2.py"</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">    full_path = REPO / script_path</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if not full_path.exists():</t>
+          <t>readme["A17"] = (</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">        continue</t>
+          <t xml:space="preserve">    "Download https://portableapps.com/apps/internet/google_chrome_portable and place it in the /Static folder"</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr"/>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">    with open(full_path, "r", encoding="utf-8") as f:</t>
+          <t>readme["A18"] = "Static/GoogleChromePortable"</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        raw_code = f.read()</t>
-        </is>
-      </c>
+      <c r="A192" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t># ─── Step 6: Script Version Info ──────────────────────────────────────────</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">    try:</t>
+          <t>script_descriptions = {</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">        formatted_code = black.format_str(raw_code, mode=black.Mode())</t>
+          <t xml:space="preserve">    "Static/Python/PDFScraper.py": "Extracts plant data from the PDF guide",</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">    except Exception:</t>
+          <t xml:space="preserve">    "Static/Python/GetLinks.py": "Finds official MBG &amp; WF URLs for each plant",</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">        formatted_code = raw_code</t>
+          <t xml:space="preserve">    "Static/Python/FillMissingData.py": "Populates missing fields using those links",</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Static/Python/GeneratePDF.py": "Creates printable PDF guide with images and sections",</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws_embed = wb.create_sheet(Path(script_path).name)</t>
+          <t xml:space="preserve">    "Static/Python/Excelify2.py": "Creates formatted Excel output with filters &amp; highlights",</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws_embed.column_dimensions["A"].width = 120</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws_embed["A1"] = "```python"</t>
+          <t>row_start = readme.max_row + 2</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for i, line in enumerate(formatted_code.splitlines(), start=2):</t>
+          <t>readme[f"A{row_start}"] = "📁 Script Version Info (Last Modified):"</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ws_embed[f"A{i}"] = line</t>
+          <t>for i, (script_path, description) in enumerate(</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws_embed[f"A{i+1}"] = "```"</t>
+          <t xml:space="preserve">    script_descriptions.items(), start=row_start + 1</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr"/>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>):</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t># ─── Step 9: Import README.md ─────────────────────────────────────────────</t>
+          <t xml:space="preserve">    full_path = REPO / script_path</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>readme_md_path = REPO / "readme.md"</t>
+          <t xml:space="preserve">    if full_path.exists():</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>if readme_md_path.exists():</t>
+          <t xml:space="preserve">        modified = datetime.fromtimestamp(full_path.stat().st_mtime).strftime(</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">    readme_full = wb.create_sheet("README_full")</t>
+          <t xml:space="preserve">            "%Y-%m-%d %H:%M"</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">    readme_full.column_dimensions["A"].width = 120</t>
+          <t xml:space="preserve">        )</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">    with readme_md_path.open("r", encoding="utf-8") as f:</t>
+          <t xml:space="preserve">        readme[f"A{i}"] = f"{script_path:&lt;40} → {modified}    {description}"</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for i, line in enumerate(f, start=1):</t>
+          <t xml:space="preserve">    else:</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">            readme_full[f"A{i}"] = line.rstrip("\n")</t>
+          <t xml:space="preserve">        readme[f"A{i}"] = f"{script_path:&lt;40} → MISSING        {description}"</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>else:</t>
-        </is>
-      </c>
+      <c r="A214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">    print("[WARN] readme.md not found. Skipping README_full tab.")</t>
+          <t># ─── Step 7: Add pip requirements ─────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr"/>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>req_path = REPO / "requirements.txt"</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t># ─── Step 10: Save and Done ──────────────────────────────────────────────</t>
+          <t>readme_row = readme.max_row + 2</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>wb.save(XLSX_FILE)</t>
+          <t>readme[f"A{readme_row}"] = "📦 Required Python Packages:"</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>print(f"Yeehaw Final Excel saved --&gt; {XLSX_FILE}")</t>
+          <t>try:</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    lines = req_path.read_text(encoding="utf-8").splitlines()</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for i, line in enumerate(lines, start=readme_row + 1):</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if line.strip() and not line.strip().startswith("#"):</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            readme[f"A{i}"] = line.strip()</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>except Exception as e:</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    readme[f"A{readme_row + 1}"] = f"⚠️ Error reading requirements.txt: {e}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t># ─── Step 8: Embed Black-formatted code ──────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>for script_path, description in script_descriptions.items():</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    full_path = REPO / script_path</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if not full_path.exists():</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    with open(full_path, "r", encoding="utf-8") as f:</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        raw_code = f.read()</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    try:</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        formatted_code = black.format_str(raw_code, mode=black.Mode())</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    except Exception:</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        formatted_code = raw_code</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws_embed = wb.create_sheet(Path(script_path).name)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws_embed.column_dimensions["A"].width = 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws_embed["A1"] = "```python"</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for i, line in enumerate(formatted_code.splitlines(), start=2):</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ws_embed[f"A{i}"] = line</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ws_embed[f"A{i+1}"] = "```"</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t># ─── Step 9: Import README.md ─────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>readme_md_path = REPO / "readme.md"</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>if readme_md_path.exists():</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    readme_full = wb.create_sheet("README_full")</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    readme_full.column_dimensions["A"].width = 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    with readme_md_path.open("r", encoding="utf-8") as f:</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for i, line in enumerate(f, start=1):</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            readme_full[f"A{i}"] = line.rstrip("\n")</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>else:</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print("[WARN] readme.md not found. Skipping README_full tab.")</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t># ─── Step 10: Save and Done ──────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>wb.save(XLSX_FILE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>print(f"Yeehaw Final Excel saved --&gt; {XLSX_FILE}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
         <is>
           <t>```</t>
         </is>
